--- a/Evalution/preds_rerun_new/_time_data.xlsx
+++ b/Evalution/preds_rerun_new/_time_data.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="llama3.1-8b-instruct" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mistral" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,4 +504,260 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mistral</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3.820181445594042</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9920371054360548</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1.451674235796612</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4.511714891931707</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8876167544943719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4.646624851453602</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8.122498173586132</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8.10217903827626</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7907740784882081</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.654116009700185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3.176511576234317</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1.695335097976731</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6459789344721453</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.57627808441923</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1.416201545849141</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2.225652065976954</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1.748998216443056</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.1295784779876364</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Evalution/preds_rerun_new/_time_data.xlsx
+++ b/Evalution/preds_rerun_new/_time_data.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,101 +530,101 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.820181445594042</v>
+        <v>1.30873634441749</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc750_ea1.002_snks0_hopf_True_type_max_fused_opt_qcache_new_burst_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9920371054360548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.451674235796612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.002_snks0_hopf_True_type_max_fused_opt_qcache_new_burst_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.511714891931707</v>
+        <v>1.010242314459956</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8876167544943719</v>
+        <v>0.9920371054360548</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.646624851453602</v>
+        <v>1.416201545849141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.122498173586132</v>
+        <v>6.922556910629615</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.10217903827626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7907740784882081</v>
+        <v>1.57627808441923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.1295784779876364</v>
       </c>
     </row>
     <row r="12">
@@ -640,121 +640,201 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.176511576234317</v>
+        <v>8.10217903827626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_sl3_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.019581689577883</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.695335097976731</v>
+        <v>1.532061922169644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6459789344721453</v>
+        <v>1.695335097976731</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.451674235796612</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.57627808441923</v>
+        <v>0.8876167544943719</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_snapkv_prof_qcache_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.416201545849141</v>
+        <v>0.7907740784882081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>preds_ns5_ws200_mc2000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc1000_ea1.0_snks0_hopf_False_type_max_fused_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.6459789344721453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.225652065976954</v>
+        <v>4.646624851453602</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+          <t>preds_ns10_ws32_mc4000_ea1.0_snks0_hopf_True_type_max_fused_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>4.511714891931707</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_snapkv_rerun_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.748998216443056</v>
+        <v>2.225652065976954</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_prof_qcache_lenNone_gblFalse</t>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_opt_qcache_new_lenNone_gblFalse</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1295784779876364</v>
+        <v>1.580706269354322</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_snapkv_opt_qcache_new_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.7217247351331573</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_prof_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_new_burst_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns1_ws200_mc750_ea1.0_snks0_hopf_True_type_max_fused_prof_qcache_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.748998216443056</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3.176511576234317</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns5_ws200_mc4000_ea1.0_snks0_hopf_True_type_max_fused_opt_qcache_new_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.22951175916451</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc1000_ea1.0_snks0_hopf_True_type_h2o_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3.820181445594042</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>preds_ns10_ws200_mc4000_ea1.0_snks0_hopf_True_type_sum_fused_rerun_lenNone_gblFalse</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8.122498173586132</v>
       </c>
     </row>
   </sheetData>
